--- a/data/tmpl/EqptInfoTmpl.xlsx
+++ b/data/tmpl/EqptInfoTmpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Website\data\tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FE46B2-ABF9-4FBA-92B4-5E3D90444E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7453D97A-C6A3-4CC0-8ABD-6A49EB58BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
   </si>
   <si>
     <t>设备ID格式：字符简称（2字符）+实验室号+连字符+序号（2位数字），示例：3D4403-01
-入库时间格式：yyyy/mm/dd hh:mm:ss，示例2022/02/01 12:45:05</t>
+入库时间格式：yyyy-mm-dd hh:mm:ss（文本格式），示例2022/02/01 12:45:05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -155,15 +155,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,57 +456,58 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.77734375" customWidth="1"/>
+    <col min="1" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K5" s="2"/>

--- a/data/tmpl/EqptInfoTmpl.xlsx
+++ b/data/tmpl/EqptInfoTmpl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Website\data\tmpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7453D97A-C6A3-4CC0-8ABD-6A49EB58BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A43A09-269C-40E4-88DD-FE03BCFADD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>实验室新增设备信息模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>设备ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -35,6 +39,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>设备分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>隶属学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,16 +55,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验室新增设备信息模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID格式：字符简称（2字符）+实验室号+连字符+序号（2位数字），示例：3D4403-01
-入库时间格式：yyyy-mm-dd hh:mm:ss（文本格式），示例2022/02/01 12:45:05</t>
+    <t>所有单元格格式均为文本格式，请勿修改单元格格式，并按照以下要求输入设备信息
+设备ID格式：字符简称（2字符）+实验室号+连字符+序号（2位数字），示例：3D4403-01
+入库时间格式：yyyy-mm-dd hh:mm:ss（文本格式），示例：2022/02/01 12:45:05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,11 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +81,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
@@ -93,16 +105,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -118,13 +122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,38 +151,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF2569C3"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -453,64 +449,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A4" sqref="A4:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="1" max="5" width="20.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -518,14 +508,6 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{70BAEE06-E2CF-4975-B2DC-7A5AC7A8FC1D}">
-      <formula1>"生化仪器,净化纯水设备,分析仪器,实验室配套设备,光学仪器,光学仪器,计量仪器,实验室耗材,检测仪器,行业专用仪器设备,教学仪器,电子电工仪器,试验设备"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576" xr:uid="{487917E1-7FE6-4D0C-9615-B83021833119}">
-      <formula1>"物理科学与技术学院,化学系,生命科学系,数学与计算科学学院,计算机科学系"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/tmpl/EqptInfoTmpl.xlsx
+++ b/data/tmpl/EqptInfoTmpl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Website\data\tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A43A09-269C-40E4-88DD-FE03BCFADD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E8D916-6D61-4905-9F0D-AB7D48F55B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,14 +153,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -452,25 +452,25 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -482,32 +482,41 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{07B86852-2446-4752-8033-91FDED546805}">
+      <formula1>"生化仪器,净化纯水设备,分析仪器,实验室配套设备,光学仪器,实验室成套设备,计量仪器,实验室耗材,检测仪器,行业专用仪器设备,教学仪器,电子电工仪器,试验设备"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576" xr:uid="{D0768DAA-A519-4D86-B74B-2302F73C123B}">
+      <formula1>"物理科学与技术学院,化学系,生命科学系,数学与计算科学学院,计算机科学系"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/tmpl/EqptInfoTmpl.xlsx
+++ b/data/tmpl/EqptInfoTmpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Website\data\tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E8D916-6D61-4905-9F0D-AB7D48F55B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E893BEA0-992C-4E93-B2D1-F94ABB7C61E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
   <si>
     <t>所有单元格格式均为文本格式，请勿修改单元格格式，并按照以下要求输入设备信息
 设备ID格式：字符简称（2字符）+实验室号+连字符+序号（2位数字），示例：3D4403-01
-入库时间格式：yyyy-mm-dd hh:mm:ss（文本格式），示例：2022/02/01 12:45:05</t>
+入库时间格式：yyyy-mm-dd hh:mm:ss（文本格式），示例：2022-02-01 12:45:05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +452,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -509,11 +509,23 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{07B86852-2446-4752-8033-91FDED546805}">
+  <dataValidations count="5">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="设备ID格式错误" error="您输入的设备ID有误，正确格式示例：3D4403-01，且文本总长度上限为9个字符。" sqref="A4:A1048576" xr:uid="{54A6EFBF-75E7-47AF-A9D3-D9B3F5B51A32}">
+      <formula1>9</formula1>
+      <formula2>9</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="设备名称格式错误" error="您输入的设备名称合适有误，文本总长度上限为50个中文字符或100个英文字符。" sqref="B4:B1048576" xr:uid="{6E3C62AA-F470-4461-A4E2-EFC714A3F66C}">
+      <formula1>50</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="时间格式错误" error="您输入的时间格式有误，正确格式为：yyyy-mm-dd hh:mm:ss，且文本总长度上限为19个字符。" sqref="E5:E1048576 E4" xr:uid="{C0546F85-ACBA-4752-A325-6D3470A1DC5E}">
+      <formula1>19</formula1>
+      <formula2>19</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="设备分类格式错误" error="您输入的设备分类无法查询，请选择已有的设备分类。" sqref="C4:C1048576" xr:uid="{723A1514-9C09-47B8-9409-A285B2D7964D}">
       <formula1>"生化仪器,净化纯水设备,分析仪器,实验室配套设备,光学仪器,实验室成套设备,计量仪器,实验室耗材,检测仪器,行业专用仪器设备,教学仪器,电子电工仪器,试验设备"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576" xr:uid="{D0768DAA-A519-4D86-B74B-2302F73C123B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="隶属学院格式错误" error="您输入的隶属学院无法查询，请选择已有的隶属学院名称。" sqref="D4:D1048576" xr:uid="{4D1C538B-79D7-45AE-B49A-1313C6D08406}">
       <formula1>"物理科学与技术学院,化学系,生命科学系,数学与计算科学学院,计算机科学系"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/tmpl/EqptInfoTmpl.xlsx
+++ b/data/tmpl/EqptInfoTmpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Website\data\tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E893BEA0-992C-4E93-B2D1-F94ABB7C61E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACA127C-73AE-4642-A160-70662893C31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -514,10 +514,6 @@
       <formula1>9</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="设备名称格式错误" error="您输入的设备名称合适有误，文本总长度上限为50个中文字符或100个英文字符。" sqref="B4:B1048576" xr:uid="{6E3C62AA-F470-4461-A4E2-EFC714A3F66C}">
-      <formula1>50</formula1>
-      <formula2>50</formula2>
-    </dataValidation>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="时间格式错误" error="您输入的时间格式有误，正确格式为：yyyy-mm-dd hh:mm:ss，且文本总长度上限为19个字符。" sqref="E5:E1048576 E4" xr:uid="{C0546F85-ACBA-4752-A325-6D3470A1DC5E}">
       <formula1>19</formula1>
       <formula2>19</formula2>
@@ -528,6 +524,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="隶属学院格式错误" error="您输入的隶属学院无法查询，请选择已有的隶属学院名称。" sqref="D4:D1048576" xr:uid="{4D1C538B-79D7-45AE-B49A-1313C6D08406}">
       <formula1>"物理科学与技术学院,化学系,生命科学系,数学与计算科学学院,计算机科学系"</formula1>
     </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="设备名称格式错误" error="您输入的设备名称合适有误，文本总长度上限为50个中文字符或100个英文字符。" sqref="B4:B1048576" xr:uid="{009553FC-E54E-4056-B445-6C86866C61AE}">
+      <formula1>1</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/tmpl/EqptInfoTmpl.xlsx
+++ b/data/tmpl/EqptInfoTmpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Website\data\tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACA127C-73AE-4642-A160-70662893C31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC12C2-584F-4132-AFA6-E7FD75B4E049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>实验室新增设备信息模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,17 +47,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入库时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所有单元格格式均为文本格式，请勿修改单元格格式，并按照以下要求输入设备信息
-设备ID格式：字符简称（2字符）+实验室号+连字符+序号（2位数字），示例：3D4403-01
-入库时间格式：yyyy-mm-dd hh:mm:ss（文本格式），示例：2022-02-01 12:45:05</t>
+设备ID格式：字符简称（2字符）+实验室号+连字符+序号（2位数字），示例：3D4403-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -165,9 +160,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,20 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -470,19 +462,17 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="55.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -497,26 +487,19 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="设备ID格式错误" error="您输入的设备ID有误，正确格式示例：3D4403-01，且文本总长度上限为9个字符。" sqref="A4:A1048576" xr:uid="{54A6EFBF-75E7-47AF-A9D3-D9B3F5B51A32}">
       <formula1>9</formula1>
       <formula2>9</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="时间格式错误" error="您输入的时间格式有误，正确格式为：yyyy-mm-dd hh:mm:ss，且文本总长度上限为19个字符。" sqref="E5:E1048576 E4" xr:uid="{C0546F85-ACBA-4752-A325-6D3470A1DC5E}">
-      <formula1>19</formula1>
-      <formula2>19</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="设备分类格式错误" error="您输入的设备分类无法查询，请选择已有的设备分类。" sqref="C4:C1048576" xr:uid="{723A1514-9C09-47B8-9409-A285B2D7964D}">
       <formula1>"生化仪器,净化纯水设备,分析仪器,实验室配套设备,光学仪器,实验室成套设备,计量仪器,实验室耗材,检测仪器,行业专用仪器设备,教学仪器,电子电工仪器,试验设备"</formula1>
